--- a/Bend_Detection/corner_detection_results.xlsx
+++ b/Bend_Detection/corner_detection_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -704,29 +704,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>row_30.png</t>
+          <t>row_3.png</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>row_31.png</t>
+          <t>row_30.png</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,59 +739,59 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>row_32.png</t>
+          <t>row_31.png</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>row_33.png</t>
+          <t>row_32.png</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>row_34.png</t>
+          <t>row_33.png</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>row_35.png</t>
+          <t>row_34.png</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>row_36.png</t>
+          <t>row_35.png</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,33 +804,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>row_37.png</t>
+          <t>row_36.png</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>row_38.png</t>
+          <t>row_37.png</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>row_39.png</t>
+          <t>row_38.png</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>row_7.png</t>
+          <t>row_39.png</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>row_8.png</t>
+          <t>row_4.png</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,13 +869,169 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>row_40.png</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>row_41.png</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>row_42.png</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>row_43.png</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>row_44.png</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>row_45.png</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>row_46.png</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>row_47.png</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>row_5.png</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>row_6.png</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>row_7.png</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>row_8.png</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>row_9.png</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Bend_Detection/corner_detection_results.xlsx
+++ b/Bend_Detection/corner_detection_results.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
